--- a/MySurvivorsGame/Assets/StreamingAssets/RealTimeData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/RealTimeData.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Volume</t>
   </si>
   <si>
     <t>KillNumber</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>Speed</t>
@@ -45,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -57,13 +63,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -80,7 +96,13 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,10 +333,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -338,240 +368,254 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>0.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>0.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>0.0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>1.0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>0.0</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/MySurvivorsGame/Assets/StreamingAssets/RealTimeData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/RealTimeData.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Volume</t>
   </si>
   <si>
     <t>KillNumber</t>
+  </si>
+  <si>
+    <t>音量大小</t>
+  </si>
+  <si>
+    <t>擊殺數</t>
   </si>
   <si>
     <t>float</t>
@@ -291,18 +297,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
         <v>0.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0.0</v>
       </c>
     </row>
